--- a/MergeExcel/考勤/新表单.xlsx
+++ b/MergeExcel/考勤/新表单.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12945" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12942" uniqueCount="417">
   <si>
     <t xml:space="preserve">本月标准工作日天数</t>
   </si>
@@ -1561,14 +1561,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-10号早退294分钟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">√
-♀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 10号迟到23分钟</t>
   </si>
   <si>
@@ -1586,14 +1578,6 @@
   <si>
     <t xml:space="preserve">
 10号迟到35分钟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-10号早退396分钟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-10号早退793分钟</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -8038,7 +8022,7 @@
         <v>400</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="S27" s="15" t="s">
         <v>402</v>
@@ -8181,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="BO27" s="53" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="2:67" ht="15.95" customHeight="1">
@@ -11673,7 +11657,7 @@
         <v>-40</v>
       </c>
       <c r="BO45" s="51" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="2:67" ht="15.95" customHeight="1">
@@ -12449,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="BO49" s="51" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="2:67" ht="15.95" customHeight="1">
@@ -14583,7 +14567,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="51" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" spans="2:67" ht="15.95" customHeight="1">
@@ -24473,7 +24457,7 @@
         <v>-24</v>
       </c>
       <c r="BO111" s="51" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112" spans="2:67" ht="15.95" customHeight="1">
@@ -24857,7 +24841,7 @@
         <v>-16</v>
       </c>
       <c r="BO113" s="51" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="114" spans="2:67" ht="15.95" customHeight="1">
@@ -25094,7 +25078,7 @@
         <v>400</v>
       </c>
       <c r="R115" s="36" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="S115" s="36" t="s">
         <v>402</v>
@@ -25237,7 +25221,7 @@
         <v>-40</v>
       </c>
       <c r="BO115" s="51" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="2:67" ht="15.95" customHeight="1">
@@ -25478,7 +25462,7 @@
         <v>400</v>
       </c>
       <c r="R117" s="15" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="S117" s="15" t="s">
         <v>402</v>
@@ -25621,7 +25605,7 @@
         <v>-16</v>
       </c>
       <c r="BO117" s="51" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="2:67" ht="15.95" customHeight="1">
@@ -27018,7 +27002,7 @@
         <v>400</v>
       </c>
       <c r="R125" s="15" t="s">
-        <v>411</v>
+        <v>48</v>
       </c>
       <c r="S125" s="15" t="s">
         <v>402</v>
@@ -27161,7 +27145,7 @@
         <v>8</v>
       </c>
       <c r="BO125" s="51" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="2:67" ht="15.95" customHeight="1">
@@ -27549,7 +27533,7 @@
         <v>-40</v>
       </c>
       <c r="BO127" s="51" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="128" spans="2:67" ht="15.95" customHeight="1">
@@ -28899,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="BO134" s="56" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135" spans="2:67" ht="15.95" customHeight="1">
